--- a/data/trans_orig/P70A02_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A02_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{139830B1-5920-4DBE-9258-2ACE5B3D36A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADA74823-D8F4-4EC8-973F-28C5184C3C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{51687445-1CE3-4B39-8151-FA7A479A021D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06872645-C5EA-40C6-9DD5-871698AE1315}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>71,38%</t>
   </si>
   <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
   <si>
     <t>25,31%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
   </si>
   <si>
     <t>59,1%</t>
   </si>
   <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>28,62%</t>
   </si>
   <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
   </si>
   <si>
     <t>74,69%</t>
   </si>
   <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
   </si>
   <si>
     <t>40,9%</t>
   </si>
   <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>55,16%</t>
   </si>
   <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
   </si>
   <si>
     <t>34,38%</t>
   </si>
   <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
   </si>
   <si>
     <t>49,33%</t>
   </si>
   <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
   </si>
   <si>
     <t>44,84%</t>
   </si>
   <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
   </si>
   <si>
     <t>65,62%</t>
   </si>
   <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
   </si>
   <si>
     <t>50,67%</t>
   </si>
   <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,55 +194,55 @@
     <t>70,73%</t>
   </si>
   <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
   </si>
   <si>
     <t>55,05%</t>
   </si>
   <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
   </si>
   <si>
     <t>65,68%</t>
   </si>
   <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
   </si>
   <si>
     <t>29,27%</t>
   </si>
   <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
   </si>
   <si>
     <t>44,95%</t>
   </si>
   <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,10 +251,10 @@
     <t>71,96%</t>
   </si>
   <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
   </si>
   <si>
     <t>60,33%</t>
@@ -263,31 +263,31 @@
     <t>53,74%</t>
   </si>
   <si>
-    <t>67,54%</t>
+    <t>66,96%</t>
   </si>
   <si>
     <t>67,89%</t>
   </si>
   <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
   </si>
   <si>
     <t>28,04%</t>
   </si>
   <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
   </si>
   <si>
     <t>39,67%</t>
   </si>
   <si>
-    <t>32,46%</t>
+    <t>33,04%</t>
   </si>
   <si>
     <t>46,26%</t>
@@ -296,10 +296,10 @@
     <t>32,11%</t>
   </si>
   <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>70,1%</t>
   </si>
   <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
   </si>
   <si>
     <t>49,6%</t>
   </si>
   <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
   </si>
   <si>
     <t>61,83%</t>
   </si>
   <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
   </si>
   <si>
     <t>29,9%</t>
   </si>
   <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
   </si>
   <si>
     <t>50,4%</t>
   </si>
   <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
   </si>
   <si>
     <t>38,17%</t>
   </si>
   <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
   </si>
   <si>
     <t>31,8%</t>
   </si>
   <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
   </si>
   <si>
     <t>48,96%</t>
   </si>
   <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAC40DB-73CF-4364-88E8-5811C7066677}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85018391-84BB-471F-8AF6-403FA9048D88}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1256,7 +1256,7 @@
         <v>331</v>
       </c>
       <c r="D10" s="7">
-        <v>369182</v>
+        <v>369183</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1358,7 +1358,7 @@
         <v>471</v>
       </c>
       <c r="D12" s="7">
-        <v>521981</v>
+        <v>521982</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P70A02_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A02_2007-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADA74823-D8F4-4EC8-973F-28C5184C3C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A88DF88F-B1A7-4F40-9455-067FB9D667D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06872645-C5EA-40C6-9DD5-871698AE1315}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7F6224A8-760D-41DA-8D25-3D01B1FF65EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Población según si le han impartido formación sobre prevención de riesgos laborales en su empresa en 2007 (Tasa respuesta: 39,47%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -74,28 +74,28 @@
     <t>71,38%</t>
   </si>
   <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
   </si>
   <si>
     <t>25,31%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
   </si>
   <si>
     <t>59,1%</t>
   </si>
   <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,202 +104,202 @@
     <t>28,62%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
   </si>
   <si>
     <t>74,69%</t>
   </si>
   <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>40,9%</t>
   </si>
   <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>55,16%</t>
   </si>
   <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
   </si>
   <si>
     <t>34,38%</t>
   </si>
   <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
   </si>
   <si>
     <t>49,33%</t>
   </si>
   <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
   </si>
   <si>
     <t>44,84%</t>
   </si>
   <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
   </si>
   <si>
     <t>65,62%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
   </si>
   <si>
     <t>50,67%</t>
   </si>
   <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
   </si>
   <si>
     <t>55,05%</t>
   </si>
   <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
   </si>
   <si>
     <t>65,68%</t>
   </si>
   <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
   </si>
   <si>
     <t>29,27%</t>
   </si>
   <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
   </si>
   <si>
     <t>44,95%</t>
   </si>
   <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>71,96%</t>
   </si>
   <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
   </si>
   <si>
     <t>60,33%</t>
   </si>
   <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
   </si>
   <si>
     <t>67,89%</t>
   </si>
   <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
   </si>
   <si>
     <t>28,04%</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
   </si>
   <si>
     <t>39,67%</t>
   </si>
   <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
   </si>
   <si>
     <t>32,11%</t>
   </si>
   <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,103 @@
     <t>70,1%</t>
   </si>
   <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
+    <t>73,7%</t>
   </si>
   <si>
     <t>49,6%</t>
   </si>
   <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
   </si>
   <si>
     <t>61,83%</t>
   </si>
   <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
   </si>
   <si>
     <t>29,9%</t>
   </si>
   <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
+    <t>26,3%</t>
   </si>
   <si>
     <t>50,4%</t>
   </si>
   <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
   </si>
   <si>
     <t>38,17%</t>
   </si>
   <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
   </si>
   <si>
     <t>31,8%</t>
   </si>
   <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
   </si>
   <si>
     <t>48,96%</t>
   </si>
   <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85018391-84BB-471F-8AF6-403FA9048D88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B01F97-8ABA-44B4-AE7A-84D27CE90CAC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1256,7 +1250,7 @@
         <v>331</v>
       </c>
       <c r="D10" s="7">
-        <v>369183</v>
+        <v>369182</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1358,7 +1352,7 @@
         <v>471</v>
       </c>
       <c r="D12" s="7">
-        <v>521982</v>
+        <v>521981</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1572,10 +1566,10 @@
         <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>165</v>
@@ -1584,13 +1578,13 @@
         <v>171808</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>538</v>
@@ -1599,13 +1593,13 @@
         <v>531062</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,13 +1614,13 @@
         <v>153245</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="H17" s="7">
         <v>162</v>
@@ -1635,13 +1629,13 @@
         <v>174614</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>319</v>
@@ -1650,13 +1644,13 @@
         <v>327859</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1718,13 @@
         <v>1196285</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>461</v>
@@ -1739,13 +1733,13 @@
         <v>474594</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1604</v>
@@ -1754,13 +1748,13 @@
         <v>1670879</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1769,13 @@
         <v>557821</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>430</v>
@@ -1790,13 +1784,13 @@
         <v>455282</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>966</v>
@@ -1805,13 +1799,13 @@
         <v>1013103</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,7 +1861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A02_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A02_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A88DF88F-B1A7-4F40-9455-067FB9D667D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9168E53-CD86-49DE-BF58-1DEB45CB960D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7F6224A8-760D-41DA-8D25-3D01B1FF65EC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{68B4DD0A-8282-4903-99C5-3342BB70CA31}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Población según si le han impartido formación sobre prevención de riesgos laborales en su empresa en 2007 (Tasa respuesta: 39,47%)</t>
   </si>
@@ -68,34 +68,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
   </si>
   <si>
     <t>25,31%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
   </si>
   <si>
     <t>59,1%</t>
   </si>
   <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>28,62%</t>
   </si>
   <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
   </si>
   <si>
     <t>74,69%</t>
   </si>
   <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>40,9%</t>
   </si>
   <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>55,16%</t>
   </si>
   <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
   </si>
   <si>
     <t>34,38%</t>
   </si>
   <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
   </si>
   <si>
     <t>49,33%</t>
   </si>
   <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
   </si>
   <si>
     <t>44,84%</t>
   </si>
   <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
   </si>
   <si>
     <t>65,62%</t>
   </si>
   <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
   </si>
   <si>
     <t>50,67%</t>
   </si>
   <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,55 +194,55 @@
     <t>70,73%</t>
   </si>
   <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
   </si>
   <si>
     <t>55,05%</t>
   </si>
   <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
   </si>
   <si>
     <t>65,68%</t>
   </si>
   <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
   </si>
   <si>
     <t>29,27%</t>
   </si>
   <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
   </si>
   <si>
     <t>44,95%</t>
   </si>
   <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +251,55 @@
     <t>71,96%</t>
   </si>
   <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>60,33%</t>
   </si>
   <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
   </si>
   <si>
     <t>67,89%</t>
   </si>
   <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
   </si>
   <si>
     <t>28,04%</t>
   </si>
   <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
   </si>
   <si>
     <t>39,67%</t>
   </si>
   <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
   </si>
   <si>
     <t>32,11%</t>
   </si>
   <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,103 +308,109 @@
     <t>70,1%</t>
   </si>
   <si>
-    <t>73,7%</t>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
   </si>
   <si>
     <t>49,6%</t>
   </si>
   <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
   </si>
   <si>
     <t>61,83%</t>
   </si>
   <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
   </si>
   <si>
     <t>29,9%</t>
   </si>
   <si>
-    <t>26,3%</t>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
   </si>
   <si>
     <t>50,4%</t>
   </si>
   <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
   </si>
   <si>
     <t>38,17%</t>
   </si>
   <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
   </si>
   <si>
     <t>31,8%</t>
   </si>
   <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
   </si>
   <si>
     <t>48,96%</t>
   </si>
   <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B01F97-8ABA-44B4-AE7A-84D27CE90CAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CBA9FC-529B-4AC7-9CAE-D931F6FC22B1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1566,10 +1572,10 @@
         <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>165</v>
@@ -1578,13 +1584,13 @@
         <v>171808</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>538</v>
@@ -1593,13 +1599,13 @@
         <v>531062</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,13 +1620,13 @@
         <v>153245</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>162</v>
@@ -1629,13 +1635,13 @@
         <v>174614</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>319</v>
@@ -1644,13 +1650,13 @@
         <v>327859</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1724,13 @@
         <v>1196285</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>461</v>
@@ -1733,13 +1739,13 @@
         <v>474594</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1604</v>
@@ -1748,13 +1754,13 @@
         <v>1670879</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1775,13 @@
         <v>557821</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>430</v>
@@ -1784,13 +1790,13 @@
         <v>455282</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>966</v>
@@ -1799,13 +1805,13 @@
         <v>1013103</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,7 +1867,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A02_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A02_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9168E53-CD86-49DE-BF58-1DEB45CB960D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{021095E0-2163-4F6C-A1C2-5BA0753A3186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{68B4DD0A-8282-4903-99C5-3342BB70CA31}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{139BF28D-98A1-4276-B41C-382A03A3F559}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población según si le han impartido formación sobre prevención de riesgos laborales en su empresa en 2007 (Tasa respuesta: 39,47%)</t>
   </si>
@@ -65,129 +65,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -245,7 +188,7 @@
     <t>37,8%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>71,96%</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CBA9FC-529B-4AC7-9CAE-D931F6FC22B1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABCCC3A-FDC7-4BA7-954F-2F77184D88CD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="D4" s="7">
-        <v>34420</v>
+        <v>197653</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7">
-        <v>4435</v>
+        <v>44136</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="N4" s="7">
-        <v>38856</v>
+        <v>241790</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="D5" s="7">
-        <v>13804</v>
+        <v>146505</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="I5" s="7">
-        <v>13088</v>
+        <v>88874</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="N5" s="7">
-        <v>26891</v>
+        <v>235378</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="D6" s="7">
-        <v>48224</v>
+        <v>344158</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="I6" s="7">
-        <v>17523</v>
+        <v>133010</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>61</v>
+        <v>458</v>
       </c>
       <c r="N6" s="7">
-        <v>65747</v>
+        <v>477168</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>163233</v>
+        <v>369182</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="I7" s="7">
-        <v>39701</v>
+        <v>136583</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>196</v>
+        <v>458</v>
       </c>
       <c r="N7" s="7">
-        <v>202934</v>
+        <v>505766</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D8" s="7">
-        <v>132701</v>
+        <v>152799</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="I8" s="7">
-        <v>75787</v>
+        <v>111531</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="N8" s="7">
-        <v>208487</v>
+        <v>264329</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>286</v>
+        <v>471</v>
       </c>
       <c r="D9" s="7">
-        <v>295934</v>
+        <v>521981</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="I9" s="7">
-        <v>115488</v>
+        <v>248114</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>397</v>
+        <v>702</v>
       </c>
       <c r="N9" s="7">
-        <v>411421</v>
+        <v>770095</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>331</v>
+        <v>253</v>
       </c>
       <c r="D10" s="7">
-        <v>369182</v>
+        <v>270194</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I10" s="7">
-        <v>136583</v>
+        <v>122067</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>458</v>
+        <v>378</v>
       </c>
       <c r="N10" s="7">
-        <v>505766</v>
+        <v>392261</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="D11" s="7">
-        <v>152799</v>
+        <v>105273</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="I11" s="7">
-        <v>111531</v>
+        <v>80263</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="N11" s="7">
-        <v>264329</v>
+        <v>185536</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>471</v>
+        <v>350</v>
       </c>
       <c r="D12" s="7">
-        <v>521981</v>
+        <v>375467</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="I12" s="7">
-        <v>248114</v>
+        <v>202330</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>702</v>
+        <v>553</v>
       </c>
       <c r="N12" s="7">
-        <v>770095</v>
+        <v>577797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>253</v>
+        <v>373</v>
       </c>
       <c r="D13" s="7">
-        <v>270194</v>
+        <v>359254</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="I13" s="7">
-        <v>122067</v>
+        <v>171808</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>378</v>
+        <v>538</v>
       </c>
       <c r="N13" s="7">
-        <v>392261</v>
+        <v>531062</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="D14" s="7">
-        <v>105273</v>
+        <v>153245</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="I14" s="7">
-        <v>80263</v>
+        <v>174614</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="N14" s="7">
-        <v>185536</v>
+        <v>327859</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>350</v>
+        <v>530</v>
       </c>
       <c r="D15" s="7">
-        <v>375467</v>
+        <v>512499</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>203</v>
+        <v>327</v>
       </c>
       <c r="I15" s="7">
-        <v>202330</v>
+        <v>346422</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>553</v>
+        <v>857</v>
       </c>
       <c r="N15" s="7">
-        <v>577797</v>
+        <v>858921</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>373</v>
+        <v>1143</v>
       </c>
       <c r="D16" s="7">
-        <v>359254</v>
+        <v>1196285</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>461</v>
+      </c>
+      <c r="I16" s="7">
+        <v>474594</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>165</v>
-      </c>
-      <c r="I16" s="7">
-        <v>171808</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1604</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1670879</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>538</v>
-      </c>
-      <c r="N16" s="7">
-        <v>531062</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>157</v>
+        <v>536</v>
       </c>
       <c r="D17" s="7">
-        <v>153245</v>
+        <v>557821</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>430</v>
+      </c>
+      <c r="I17" s="7">
+        <v>455282</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>162</v>
-      </c>
-      <c r="I17" s="7">
-        <v>174614</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>966</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1013103</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>319</v>
-      </c>
-      <c r="N17" s="7">
-        <v>327859</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>530</v>
+        <v>1679</v>
       </c>
       <c r="D18" s="7">
-        <v>512499</v>
+        <v>1754106</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>327</v>
+        <v>891</v>
       </c>
       <c r="I18" s="7">
-        <v>346422</v>
+        <v>929876</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>857</v>
+        <v>2570</v>
       </c>
       <c r="N18" s="7">
-        <v>858921</v>
+        <v>2683982</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1143</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1196285</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>461</v>
-      </c>
-      <c r="I19" s="7">
-        <v>474594</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1604</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1670879</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>536</v>
-      </c>
-      <c r="D20" s="7">
-        <v>557821</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>430</v>
-      </c>
-      <c r="I20" s="7">
-        <v>455282</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>966</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1013103</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1679</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1754106</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>891</v>
-      </c>
-      <c r="I21" s="7">
-        <v>929876</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2570</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2683982</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
